--- a/doc/配置/map.xlsx
+++ b/doc/配置/map.xlsx
@@ -15,42 +15,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1 功能型
-2 珍宝（兑换积分）
-3 材料（碎片）</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -58,16 +24,16 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Point</t>
-  </si>
-  <si>
-    <t>Need_Point</t>
-  </si>
-  <si>
-    <t>Weight</t>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Drop_item</t>
+  </si>
+  <si>
+    <t>Drop_num</t>
+  </si>
+  <si>
+    <t>Special_Chance</t>
   </si>
   <si>
     <t>Des</t>
@@ -85,49 +51,40 @@
     <t>名字</t>
   </si>
   <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>积分</t>
-  </si>
-  <si>
-    <t>兑换需要积分</t>
-  </si>
-  <si>
-    <t>重量</t>
+    <t>大小</t>
+  </si>
+  <si>
+    <t>掉落道具</t>
+  </si>
+  <si>
+    <t>掉落数量</t>
+  </si>
+  <si>
+    <t>特殊地面出现概率(万分比)</t>
   </si>
   <si>
     <t>描述</t>
   </si>
   <si>
-    <t>物品1</t>
-  </si>
-  <si>
-    <t>这是物品1</t>
-  </si>
-  <si>
-    <t>物品2</t>
-  </si>
-  <si>
-    <t>这是物品2</t>
-  </si>
-  <si>
-    <t>物品3</t>
-  </si>
-  <si>
-    <t>这是物品3</t>
-  </si>
-  <si>
-    <t>物品4</t>
-  </si>
-  <si>
-    <t>这是物品4</t>
-  </si>
-  <si>
-    <t>物品5</t>
-  </si>
-  <si>
-    <t>这是物品5</t>
+    <t>迷宫1</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>5,11,15</t>
+  </si>
+  <si>
+    <t>迷宫2</t>
+  </si>
+  <si>
+    <t>迷宫3</t>
+  </si>
+  <si>
+    <t>迷宫4</t>
+  </si>
+  <si>
+    <t>迷宫5</t>
   </si>
 </sst>
 </file>
@@ -136,11 +93,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +121,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -173,15 +144,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,8 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,45 +212,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,60 +250,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -328,6 +267,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -340,13 +309,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,49 +429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,97 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,55 +461,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -594,16 +494,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -619,153 +549,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1130,16 +1069,14 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H$1:J$1048576"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="8.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10" style="2" customWidth="1"/>
+    <col min="4" max="7" width="10" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1177,10 +1114,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -1212,7 +1149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1220,47 +1157,39 @@
         <v>16</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
-        <f>D4*2</f>
         <v>20</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" ref="E5:E8" si="0">D5*2</f>
-        <v>40</v>
-      </c>
       <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1268,75 +1197,62 @@
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="2">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>40</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="F7" s="2">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>50</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>60</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="F8" s="2">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>25</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/doc/配置/map.xlsx
+++ b/doc/配置/map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9435"/>
+    <workbookView windowWidth="20925" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -92,10 +92,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -121,15 +121,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,6 +134,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,6 +169,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -174,6 +183,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -181,7 +205,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,37 +235,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -250,9 +251,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,6 +267,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -286,168 +448,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,30 +485,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -524,17 +500,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,6 +528,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -566,10 +566,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,133 +578,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1077,7 +1077,7 @@
     <col min="1" max="1" width="5.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="8.5" style="2" customWidth="1"/>
     <col min="4" max="7" width="10" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="8" max="16383" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -1111,7 +1111,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
